--- a/rtss-pre1917/src/main/resources/ugvi/1893-1895.xlsx
+++ b/rtss-pre1917/src/main/resources/ugvi/1893-1895.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\BOOKS\демография СССР и РСФСР\1897-1913\Отчет о состоянии народного здравия\таблицы\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\WINAPPS\SLOVO\UKR\github\RTSS\rtss-pre1917\src\main\resources\ugvi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18D0CFED-442A-4151-924E-AA2A0D3B0273}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FBC0A1D-0E60-4481-8DA4-E2966DA3556B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12480" yWindow="1290" windowWidth="25590" windowHeight="21630" xr2:uid="{EE81CEA4-C2A9-46BB-9502-776B68274887}"/>
+    <workbookView xWindow="3630" yWindow="2370" windowWidth="15915" windowHeight="21630" xr2:uid="{EE81CEA4-C2A9-46BB-9502-776B68274887}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -728,8 +728,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CA232EB-CD0C-4D8D-AB4F-433EB882DCEB}">
   <dimension ref="A1:P652"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A261" workbookViewId="0">
-      <selection activeCell="H307" sqref="H307"/>
+    <sheetView tabSelected="1" topLeftCell="A240" workbookViewId="0">
+      <selection activeCell="K248" sqref="K248"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7867,13 +7867,13 @@
         <v>26</v>
       </c>
       <c r="F247" s="3">
-        <v>547633</v>
+        <v>81356</v>
       </c>
       <c r="G247" s="3">
-        <v>28171</v>
+        <v>3883</v>
       </c>
       <c r="H247" s="3">
-        <v>22551</v>
+        <v>2078</v>
       </c>
       <c r="I247" s="3"/>
       <c r="J247" s="3"/>

--- a/rtss-pre1917/src/main/resources/ugvi/1893-1895.xlsx
+++ b/rtss-pre1917/src/main/resources/ugvi/1893-1895.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\WINAPPS\SLOVO\UKR\github\RTSS\rtss-pre1917\src\main\resources\ugvi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FBC0A1D-0E60-4481-8DA4-E2966DA3556B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAF9DE1A-44AA-4F26-99E0-C8F119401C08}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3630" yWindow="2370" windowWidth="15915" windowHeight="21630" xr2:uid="{EE81CEA4-C2A9-46BB-9502-776B68274887}"/>
+    <workbookView xWindow="2640" yWindow="2370" windowWidth="18495" windowHeight="21630" xr2:uid="{EE81CEA4-C2A9-46BB-9502-776B68274887}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -387,12 +387,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -407,11 +419,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -728,8 +742,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CA232EB-CD0C-4D8D-AB4F-433EB882DCEB}">
   <dimension ref="A1:P652"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A240" workbookViewId="0">
-      <selection activeCell="K248" sqref="K248"/>
+    <sheetView tabSelected="1" topLeftCell="A93" workbookViewId="0">
+      <selection activeCell="K102" sqref="K102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1875,8 +1889,8 @@
       <c r="D40" s="2">
         <v>30.4</v>
       </c>
-      <c r="F40" s="3">
-        <v>21577379</v>
+      <c r="F40" s="4">
+        <v>21577079</v>
       </c>
       <c r="G40" s="3">
         <v>993866</v>
@@ -4398,8 +4412,8 @@
       <c r="D127" s="2">
         <v>41</v>
       </c>
-      <c r="F127" s="3">
-        <v>2647571</v>
+      <c r="F127" s="5">
+        <v>1537571</v>
       </c>
       <c r="G127" s="3">
         <v>85262</v>

--- a/rtss-pre1917/src/main/resources/ugvi/1893-1895.xlsx
+++ b/rtss-pre1917/src/main/resources/ugvi/1893-1895.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\WINAPPS\SLOVO\UKR\github\RTSS\rtss-pre1917\src\main\resources\ugvi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAF9DE1A-44AA-4F26-99E0-C8F119401C08}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F034DD81-B982-40DA-A0EF-0A727A2921C8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2640" yWindow="2370" windowWidth="18495" windowHeight="21630" xr2:uid="{EE81CEA4-C2A9-46BB-9502-776B68274887}"/>
+    <workbookView xWindow="4125" yWindow="1875" windowWidth="18495" windowHeight="21630" xr2:uid="{EE81CEA4-C2A9-46BB-9502-776B68274887}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -742,8 +742,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CA232EB-CD0C-4D8D-AB4F-433EB882DCEB}">
   <dimension ref="A1:P652"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A93" workbookViewId="0">
-      <selection activeCell="K102" sqref="K102"/>
+    <sheetView tabSelected="1" topLeftCell="A186" workbookViewId="0">
+      <selection activeCell="G217" sqref="G217"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6986,7 +6986,7 @@
         <v>571661</v>
       </c>
       <c r="G216" s="3">
-        <v>121163</v>
+        <v>12163</v>
       </c>
       <c r="H216" s="3">
         <v>11542</v>

--- a/rtss-pre1917/src/main/resources/ugvi/1893-1895.xlsx
+++ b/rtss-pre1917/src/main/resources/ugvi/1893-1895.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\WINAPPS\SLOVO\UKR\github\RTSS\rtss-pre1917\src\main\resources\ugvi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F034DD81-B982-40DA-A0EF-0A727A2921C8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{185459C2-C4E0-401C-9EEA-5C4EB25020D2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4125" yWindow="1875" windowWidth="18495" windowHeight="21630" xr2:uid="{EE81CEA4-C2A9-46BB-9502-776B68274887}"/>
+    <workbookView xWindow="330" yWindow="330" windowWidth="18495" windowHeight="21630" xr2:uid="{EE81CEA4-C2A9-46BB-9502-776B68274887}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="110">
   <si>
     <t>губ</t>
   </si>
@@ -742,8 +742,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CA232EB-CD0C-4D8D-AB4F-433EB882DCEB}">
   <dimension ref="A1:P652"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A186" workbookViewId="0">
-      <selection activeCell="G217" sqref="G217"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="G67" sqref="G67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2648,7 +2648,7 @@
         <v>851684</v>
       </c>
       <c r="G66" s="3">
-        <v>38420</v>
+        <v>33420</v>
       </c>
       <c r="H66" s="3">
         <v>21114</v>
@@ -8784,11 +8784,11 @@
       <c r="F278" s="3">
         <v>700000</v>
       </c>
-      <c r="G278" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="H278" s="3" t="s">
-        <v>101</v>
+      <c r="G278" s="3">
+        <v>1030</v>
+      </c>
+      <c r="H278" s="3">
+        <v>666</v>
       </c>
       <c r="I278" s="3"/>
       <c r="J278" s="3"/>

--- a/rtss-pre1917/src/main/resources/ugvi/1893-1895.xlsx
+++ b/rtss-pre1917/src/main/resources/ugvi/1893-1895.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\WINAPPS\SLOVO\UKR\github\RTSS\rtss-pre1917\src\main\resources\ugvi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{185459C2-C4E0-401C-9EEA-5C4EB25020D2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{150045AA-7B89-4AB3-84F5-B18A8A5237D6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="330" yWindow="330" windowWidth="18495" windowHeight="21630" xr2:uid="{EE81CEA4-C2A9-46BB-9502-776B68274887}"/>
+    <workbookView xWindow="19560" yWindow="945" windowWidth="18495" windowHeight="22125" activeTab="1" xr2:uid="{EE81CEA4-C2A9-46BB-9502-776B68274887}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="notes" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="114">
   <si>
     <t>губ</t>
   </si>
@@ -361,6 +362,18 @@
   </si>
   <si>
     <t>чж в сл. году</t>
+  </si>
+  <si>
+    <t>В 1893 число умерших в Елисаветпольской напечатано 11,225, но вычисляется 12,225</t>
+  </si>
+  <si>
+    <t>В 1893 число умерших на Кавказе напечатано 200,813, но вычисляется 201,813</t>
+  </si>
+  <si>
+    <t>В 1893 число умерших в Эриванской напечатано 17,141, но вычисляется 17,741</t>
+  </si>
+  <si>
+    <t>В 1893 число умерших в Империи напечатано 3,660,716, но вычисляется 3,669,850</t>
   </si>
 </sst>
 </file>
@@ -742,8 +755,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CA232EB-CD0C-4D8D-AB4F-433EB882DCEB}">
   <dimension ref="A1:P652"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="G67" sqref="G67"/>
+    <sheetView topLeftCell="A195" workbookViewId="0">
+      <selection activeCell="L211" sqref="L211"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1840,7 +1853,7 @@
         <v>930488</v>
       </c>
       <c r="H38" s="3">
-        <v>625808</v>
+        <v>625308</v>
       </c>
       <c r="I38" s="3"/>
       <c r="J38" s="3"/>
@@ -2362,7 +2375,7 @@
         <v>44986</v>
       </c>
       <c r="H56" s="3">
-        <v>26496</v>
+        <v>26946</v>
       </c>
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
@@ -3232,7 +3245,7 @@
         <v>66102</v>
       </c>
       <c r="H86" s="3">
-        <v>47859</v>
+        <v>47359</v>
       </c>
       <c r="I86" s="3"/>
       <c r="J86" s="3"/>
@@ -4711,7 +4724,7 @@
         <v>79245</v>
       </c>
       <c r="H137" s="3">
-        <v>68289</v>
+        <v>68298</v>
       </c>
       <c r="I137" s="3"/>
       <c r="J137" s="3"/>
@@ -7047,8 +7060,8 @@
       <c r="G218" s="3">
         <v>21359</v>
       </c>
-      <c r="H218" s="3">
-        <v>11225</v>
+      <c r="H218" s="5">
+        <v>12225</v>
       </c>
       <c r="I218" s="3"/>
       <c r="J218" s="3"/>
@@ -7656,8 +7669,8 @@
       <c r="G239" s="3">
         <v>30837</v>
       </c>
-      <c r="H239" s="3">
-        <v>17141</v>
+      <c r="H239" s="5">
+        <v>17741</v>
       </c>
       <c r="I239" s="3"/>
       <c r="J239" s="3"/>
@@ -7743,8 +7756,8 @@
       <c r="G242" s="3">
         <v>314361</v>
       </c>
-      <c r="H242" s="3">
-        <v>200813</v>
+      <c r="H242" s="5">
+        <v>201813</v>
       </c>
       <c r="I242" s="3"/>
       <c r="J242" s="3"/>
@@ -9570,8 +9583,8 @@
       <c r="G305" s="3">
         <v>5314807</v>
       </c>
-      <c r="H305" s="3">
-        <v>3060716</v>
+      <c r="H305" s="5">
+        <v>3669716</v>
       </c>
       <c r="I305" s="3"/>
       <c r="J305" s="3"/>
@@ -11022,4 +11035,39 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{220F3413-93E8-455B-A41E-4C7EF9C6D6B9}">
+  <dimension ref="A1:A4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D41" sqref="D41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>113</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/rtss-pre1917/src/main/resources/ugvi/1893-1895.xlsx
+++ b/rtss-pre1917/src/main/resources/ugvi/1893-1895.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\WINAPPS\SLOVO\UKR\github\RTSS\rtss-pre1917\src\main\resources\ugvi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{150045AA-7B89-4AB3-84F5-B18A8A5237D6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{487C9320-6B15-4E99-B4F7-5700E338DE56}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19560" yWindow="945" windowWidth="18495" windowHeight="22125" activeTab="1" xr2:uid="{EE81CEA4-C2A9-46BB-9502-776B68274887}"/>
+    <workbookView xWindow="30" yWindow="1320" windowWidth="18495" windowHeight="22125" activeTab="1" xr2:uid="{EE81CEA4-C2A9-46BB-9502-776B68274887}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="120">
   <si>
     <t>губ</t>
   </si>
@@ -374,6 +374,24 @@
   </si>
   <si>
     <t>В 1893 число умерших в Империи напечатано 3,660,716, но вычисляется 3,669,850</t>
+  </si>
+  <si>
+    <t>Число умерших в 1895 году содержит многочисленные ошибки подсчёта.</t>
+  </si>
+  <si>
+    <t>Погубернская сумма уездов не сходится с напечатаным числом для некоторых земских губерний: Московской, Псковской, Рязанской и м.б. других.</t>
+  </si>
+  <si>
+    <t>Общее расхождение суммы по земским губерниям сравнительно с напечатанной величиной -- почти 39 тыс. из 2.4 млн.</t>
+  </si>
+  <si>
+    <t>Для европейской России расхождение -- 48 тыс. из 3.5 млн</t>
+  </si>
+  <si>
+    <t>По Сибири расхождение -- 5 тыс. из 177 тыс.</t>
+  </si>
+  <si>
+    <t>По Империи расхождение -- 52 тыс. из 3.9 млн.</t>
   </si>
 </sst>
 </file>
@@ -755,8 +773,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CA232EB-CD0C-4D8D-AB4F-433EB882DCEB}">
   <dimension ref="A1:P652"/>
   <sheetViews>
-    <sheetView topLeftCell="A195" workbookViewId="0">
-      <selection activeCell="L211" sqref="L211"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="K56" sqref="K56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3300,8 +3318,8 @@
       <c r="G88" s="3">
         <v>53172</v>
       </c>
-      <c r="H88" s="3">
-        <v>37587</v>
+      <c r="H88" s="5">
+        <v>47587</v>
       </c>
       <c r="I88" s="3"/>
       <c r="J88" s="3"/>
@@ -3561,8 +3579,8 @@
       <c r="G97" s="3">
         <v>60292</v>
       </c>
-      <c r="H97" s="3">
-        <v>38427</v>
+      <c r="H97" s="5">
+        <v>38472</v>
       </c>
       <c r="I97" s="3"/>
       <c r="J97" s="3"/>
@@ -9525,7 +9543,7 @@
         <v>133297</v>
       </c>
       <c r="H303" s="3">
-        <v>70968</v>
+        <v>79968</v>
       </c>
       <c r="I303" s="3"/>
       <c r="J303" s="3"/>
@@ -11039,10 +11057,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{220F3413-93E8-455B-A41E-4C7EF9C6D6B9}">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:A12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11067,6 +11085,36 @@
         <v>113</v>
       </c>
     </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>119</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
